--- a/data/pca/factorExposure/factorExposure_2018-06-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-06-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01632984116511269</v>
+        <v>0.02133273465619037</v>
       </c>
       <c r="C2">
-        <v>0.02535162588746847</v>
+        <v>-0.01744658983709572</v>
       </c>
       <c r="D2">
-        <v>-0.0002973711866177826</v>
+        <v>-0.02418748905218569</v>
       </c>
       <c r="E2">
-        <v>-0.02779396706840504</v>
+        <v>-0.01468709774456041</v>
       </c>
       <c r="F2">
-        <v>0.1205167723525291</v>
+        <v>0.01269870501945134</v>
       </c>
       <c r="G2">
-        <v>-0.05702090615685097</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0.04861904444088416</v>
+      </c>
+      <c r="H2">
+        <v>0.04682912483893521</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.08827006168758431</v>
+        <v>0.08674552575233468</v>
       </c>
       <c r="C3">
-        <v>0.004490881159803081</v>
+        <v>0.0159338335227676</v>
       </c>
       <c r="D3">
-        <v>0.07243969711893063</v>
+        <v>-0.04730912093230931</v>
       </c>
       <c r="E3">
-        <v>-0.08385121876158892</v>
+        <v>-0.006862766347320504</v>
       </c>
       <c r="F3">
-        <v>0.4334232869493336</v>
+        <v>0.01291183815998439</v>
       </c>
       <c r="G3">
-        <v>-0.1493228520513283</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0.1816334851581884</v>
+      </c>
+      <c r="H3">
+        <v>0.1699348847617445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04064882993523325</v>
+        <v>0.04892609152571088</v>
       </c>
       <c r="C4">
-        <v>-0.001461458456912855</v>
+        <v>-0.002088681507412359</v>
       </c>
       <c r="D4">
-        <v>-0.02719806620370052</v>
+        <v>-0.05182258534899067</v>
       </c>
       <c r="E4">
-        <v>0.03739548630561328</v>
+        <v>0.02168810677697091</v>
       </c>
       <c r="F4">
-        <v>0.08701469006162083</v>
+        <v>0.05524394151563328</v>
       </c>
       <c r="G4">
-        <v>-0.03901061386334014</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>0.03129640254147478</v>
+      </c>
+      <c r="H4">
+        <v>0.05309866815067295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02757626174402582</v>
+        <v>0.02963750954000884</v>
       </c>
       <c r="C6">
-        <v>0.01078803268884505</v>
+        <v>4.25310873707601e-05</v>
       </c>
       <c r="D6">
-        <v>0.0004133171599315514</v>
+        <v>-0.05647894956225216</v>
       </c>
       <c r="E6">
-        <v>0.02135330756592193</v>
+        <v>0.005528214143440718</v>
       </c>
       <c r="F6">
-        <v>0.01617110477164796</v>
+        <v>0.03270923418884974</v>
       </c>
       <c r="G6">
-        <v>0.01094232743526521</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.008553945121905512</v>
+      </c>
+      <c r="H6">
+        <v>0.06167305727375619</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01899377379375509</v>
+        <v>0.02356713393969825</v>
       </c>
       <c r="C7">
-        <v>0.00627483305351708</v>
+        <v>-0.001043201849294117</v>
       </c>
       <c r="D7">
-        <v>0.008231287835346818</v>
+        <v>-0.02935280098818121</v>
       </c>
       <c r="E7">
-        <v>0.02140043245090344</v>
+        <v>0.04280460002691307</v>
       </c>
       <c r="F7">
-        <v>0.05711621799939595</v>
+        <v>0.007836914930979164</v>
       </c>
       <c r="G7">
-        <v>-0.06032644774169895</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.02155985309536799</v>
+      </c>
+      <c r="H7">
+        <v>0.03996306329301362</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01615332550112713</v>
+        <v>0.007297600417386699</v>
       </c>
       <c r="C8">
-        <v>0.009803505326449125</v>
+        <v>0.002439999108856668</v>
       </c>
       <c r="D8">
-        <v>-0.004874162868776739</v>
+        <v>-0.01099939865926275</v>
       </c>
       <c r="E8">
-        <v>0.03105451776880545</v>
+        <v>0.007293795244859375</v>
       </c>
       <c r="F8">
-        <v>0.1035689359741866</v>
+        <v>0.02347298708589432</v>
       </c>
       <c r="G8">
-        <v>-0.03875471053837503</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>0.04219077530758409</v>
+      </c>
+      <c r="H8">
+        <v>0.04039881883209737</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.0329715886680817</v>
+        <v>0.03872224486546473</v>
       </c>
       <c r="C9">
-        <v>0.00622783872210205</v>
+        <v>0.001132985731686042</v>
       </c>
       <c r="D9">
-        <v>-0.01439194459865206</v>
+        <v>-0.03893607425553748</v>
       </c>
       <c r="E9">
-        <v>0.0299972134712355</v>
+        <v>0.01011835872408844</v>
       </c>
       <c r="F9">
-        <v>0.09542300923305283</v>
+        <v>0.0319848032685731</v>
       </c>
       <c r="G9">
-        <v>-0.04930247722389428</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>0.04230228775093299</v>
+      </c>
+      <c r="H9">
+        <v>0.05393688008852907</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03770135082359868</v>
+        <v>0.09655714542374531</v>
       </c>
       <c r="C10">
-        <v>-0.07609090275410112</v>
+        <v>0.008992520066209811</v>
       </c>
       <c r="D10">
-        <v>-0.04441763770361842</v>
+        <v>0.169573508954358</v>
       </c>
       <c r="E10">
-        <v>-0.1372410067254916</v>
+        <v>-0.004410582231806579</v>
       </c>
       <c r="F10">
-        <v>0.04256493450486995</v>
+        <v>-0.03230281215102612</v>
       </c>
       <c r="G10">
-        <v>0.0110821090471654</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>0.03445485012670266</v>
+      </c>
+      <c r="H10">
+        <v>0.01015843719955334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03211116691960622</v>
+        <v>0.02461138021641491</v>
       </c>
       <c r="C11">
-        <v>0.0265163498584945</v>
+        <v>0.01171192192334935</v>
       </c>
       <c r="D11">
-        <v>0.005352196619950193</v>
+        <v>-0.0455482509898006</v>
       </c>
       <c r="E11">
-        <v>0.02502243434682649</v>
+        <v>-0.0009823752753750129</v>
       </c>
       <c r="F11">
-        <v>0.04885466323835527</v>
+        <v>0.0157820946728738</v>
       </c>
       <c r="G11">
-        <v>-0.01875055679177995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>0.02460485939498757</v>
+      </c>
+      <c r="H11">
+        <v>0.04910328870335349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03964669790531536</v>
+        <v>0.0292802598347742</v>
       </c>
       <c r="C12">
-        <v>0.02627879200945066</v>
+        <v>0.008475830622408606</v>
       </c>
       <c r="D12">
-        <v>-0.00278813290798862</v>
+        <v>-0.04402531199256376</v>
       </c>
       <c r="E12">
-        <v>0.03567103045018941</v>
+        <v>0.008538157719372858</v>
       </c>
       <c r="F12">
-        <v>0.02950421003352706</v>
+        <v>0.01816018070808767</v>
       </c>
       <c r="G12">
-        <v>-0.005583274338329094</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>0.005503764382246905</v>
+      </c>
+      <c r="H12">
+        <v>0.02074230737539406</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01395586052216485</v>
+        <v>0.03032339089422439</v>
       </c>
       <c r="C13">
-        <v>0.01795201902111337</v>
+        <v>-0.01234596029628346</v>
       </c>
       <c r="D13">
-        <v>-0.01243093394548559</v>
+        <v>-0.01484857525968964</v>
       </c>
       <c r="E13">
-        <v>-0.0125734811668392</v>
+        <v>-0.009872089872730833</v>
       </c>
       <c r="F13">
-        <v>0.08549585577382447</v>
+        <v>0.0303099945697404</v>
       </c>
       <c r="G13">
-        <v>-0.03660928503219629</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>0.05854165995100675</v>
+      </c>
+      <c r="H13">
+        <v>0.07473009069637625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01532824506732096</v>
+        <v>0.01864138007740699</v>
       </c>
       <c r="C14">
-        <v>-0.0008932804481837564</v>
+        <v>-0.0001691606973305836</v>
       </c>
       <c r="D14">
-        <v>-0.01195948070914371</v>
+        <v>-0.01020532075388272</v>
       </c>
       <c r="E14">
-        <v>0.02638702827731968</v>
+        <v>0.01447311126957511</v>
       </c>
       <c r="F14">
-        <v>0.06594583711698902</v>
+        <v>0.02019403431133188</v>
       </c>
       <c r="G14">
-        <v>-0.04919729455170252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>0.04051292561409158</v>
+      </c>
+      <c r="H14">
+        <v>0.01175207471704401</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0261777326495499</v>
+        <v>0.02534947080623233</v>
       </c>
       <c r="C16">
-        <v>0.02772243045505854</v>
+        <v>0.01131237375957926</v>
       </c>
       <c r="D16">
-        <v>0.001144408052827023</v>
+        <v>-0.03764954235428799</v>
       </c>
       <c r="E16">
-        <v>0.02099679830575967</v>
+        <v>0.002680192093090894</v>
       </c>
       <c r="F16">
-        <v>0.05176319483861227</v>
+        <v>0.01985963302459656</v>
       </c>
       <c r="G16">
-        <v>-0.02056147484549559</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.02091644903424874</v>
+      </c>
+      <c r="H16">
+        <v>0.03681853340693841</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03315394470802662</v>
+        <v>0.03754539407571308</v>
       </c>
       <c r="C19">
-        <v>0.02705663227321367</v>
+        <v>0.001625530963650347</v>
       </c>
       <c r="D19">
-        <v>0.00440440507286234</v>
+        <v>-0.02996763643298405</v>
       </c>
       <c r="E19">
-        <v>0.01713672621888805</v>
+        <v>0.005846988585634377</v>
       </c>
       <c r="F19">
-        <v>0.1197810356828512</v>
+        <v>0.03337354883859776</v>
       </c>
       <c r="G19">
-        <v>-0.04613800354133578</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>0.05860764582015963</v>
+      </c>
+      <c r="H19">
+        <v>0.07124150333625918</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.003047469814313291</v>
+        <v>0.013356197709599</v>
       </c>
       <c r="C20">
-        <v>0.003827580235109819</v>
+        <v>-0.00442991167179902</v>
       </c>
       <c r="D20">
-        <v>-0.005562826919744043</v>
+        <v>-0.01857943538591884</v>
       </c>
       <c r="E20">
-        <v>0.01722453309638855</v>
+        <v>0.006213314762537545</v>
       </c>
       <c r="F20">
-        <v>0.08484388319805566</v>
+        <v>0.02247255216581404</v>
       </c>
       <c r="G20">
-        <v>-0.06735937974307078</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>0.05222994576903658</v>
+      </c>
+      <c r="H20">
+        <v>0.03028825764214248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.003714641208408135</v>
+        <v>0.01725910615002449</v>
       </c>
       <c r="C21">
-        <v>-0.0181524268456164</v>
+        <v>-0.006535104283203042</v>
       </c>
       <c r="D21">
-        <v>0.01541864511690745</v>
+        <v>-0.01783224660646391</v>
       </c>
       <c r="E21">
-        <v>0.03139683735538731</v>
+        <v>0.01893179293229206</v>
       </c>
       <c r="F21">
-        <v>0.04883581528892003</v>
+        <v>0.01626344830154725</v>
       </c>
       <c r="G21">
-        <v>-0.01660758885270438</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>0.04722117854250715</v>
+      </c>
+      <c r="H21">
+        <v>0.04547720211130908</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02830951434320214</v>
+        <v>0.02141499487236054</v>
       </c>
       <c r="C24">
-        <v>0.02388069263096503</v>
+        <v>0.005612020357697107</v>
       </c>
       <c r="D24">
-        <v>-0.007842900230409022</v>
+        <v>-0.03965860572765848</v>
       </c>
       <c r="E24">
-        <v>0.007550483554342796</v>
+        <v>0.0009420317699387089</v>
       </c>
       <c r="F24">
-        <v>0.04644621553206046</v>
+        <v>0.01464067982005433</v>
       </c>
       <c r="G24">
-        <v>-0.02006493333989081</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.01622399970489962</v>
+      </c>
+      <c r="H24">
+        <v>0.04558747732539702</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02969495666889238</v>
+        <v>0.03336577937015607</v>
       </c>
       <c r="C25">
-        <v>0.01810595619960965</v>
+        <v>0.003836871798532173</v>
       </c>
       <c r="D25">
-        <v>0.005357798345676471</v>
+        <v>-0.039736654269529</v>
       </c>
       <c r="E25">
-        <v>0.02522136118521467</v>
+        <v>0.004740617018272298</v>
       </c>
       <c r="F25">
-        <v>0.05560364819622947</v>
+        <v>0.02292551388174025</v>
       </c>
       <c r="G25">
-        <v>-0.007503156631995057</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>0.02056393860057164</v>
+      </c>
+      <c r="H25">
+        <v>0.04424408932301911</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01995297405983653</v>
+        <v>0.01830707223000676</v>
       </c>
       <c r="C26">
-        <v>0.01644880492589494</v>
+        <v>-0.01797024402675949</v>
       </c>
       <c r="D26">
-        <v>0.0231349718604617</v>
+        <v>-0.006963917890553784</v>
       </c>
       <c r="E26">
-        <v>0.002819222082456838</v>
+        <v>-0.0007268794596812406</v>
       </c>
       <c r="F26">
-        <v>0.07156374670676302</v>
+        <v>0.005282382054134853</v>
       </c>
       <c r="G26">
-        <v>-0.03532281080633178</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>0.03175103648050667</v>
+      </c>
+      <c r="H26">
+        <v>0.02547753549399956</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.05343829444028156</v>
+        <v>0.02225638652250369</v>
       </c>
       <c r="C27">
-        <v>0.0204281664678981</v>
+        <v>0.00843383726155018</v>
       </c>
       <c r="D27">
-        <v>-0.03741082204173442</v>
+        <v>-0.01248652722185088</v>
       </c>
       <c r="E27">
-        <v>0.02949625197185271</v>
+        <v>0.003372185873082483</v>
       </c>
       <c r="F27">
-        <v>0.04682266690727042</v>
+        <v>0.01565528745102706</v>
       </c>
       <c r="G27">
-        <v>-0.04858312741118551</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>0.006896526890557172</v>
+      </c>
+      <c r="H27">
+        <v>-0.005151625226336862</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.06133628353872635</v>
+        <v>0.1421798214350183</v>
       </c>
       <c r="C28">
-        <v>-0.1031564497655194</v>
+        <v>0.001970849493326378</v>
       </c>
       <c r="D28">
-        <v>-0.06903332403593426</v>
+        <v>0.2285280485227115</v>
       </c>
       <c r="E28">
-        <v>-0.1686351331121294</v>
+        <v>0.002678271392355388</v>
       </c>
       <c r="F28">
-        <v>0.03460607927912433</v>
+        <v>-0.03089968890222715</v>
       </c>
       <c r="G28">
-        <v>0.003859050749439289</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>0.02495719468274562</v>
+      </c>
+      <c r="H28">
+        <v>-0.0001416005211816166</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02025652073429933</v>
+        <v>0.02242632475573579</v>
       </c>
       <c r="C29">
-        <v>-0.0005177472954054324</v>
+        <v>0.001354730231168929</v>
       </c>
       <c r="D29">
-        <v>-0.01460008083177363</v>
+        <v>-0.00994872086145402</v>
       </c>
       <c r="E29">
-        <v>0.03473446476926485</v>
+        <v>0.01515283548482436</v>
       </c>
       <c r="F29">
-        <v>0.06162188058207413</v>
+        <v>0.02112593189885262</v>
       </c>
       <c r="G29">
-        <v>-0.03991911743937439</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>0.03855458659500998</v>
+      </c>
+      <c r="H29">
+        <v>0.002590300091757181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08198102430487943</v>
+        <v>0.05920671055764527</v>
       </c>
       <c r="C30">
-        <v>0.0572007529537498</v>
+        <v>0.001301228190221842</v>
       </c>
       <c r="D30">
-        <v>-0.02221276589217535</v>
+        <v>-0.08573795019684476</v>
       </c>
       <c r="E30">
-        <v>0.04950370828964148</v>
+        <v>-0.03014906006807565</v>
       </c>
       <c r="F30">
-        <v>0.1157739929695204</v>
+        <v>0.05974112733786083</v>
       </c>
       <c r="G30">
-        <v>-0.04589481816319776</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.05226330030535627</v>
+      </c>
+      <c r="H30">
+        <v>0.07454463129586489</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05750890728290146</v>
+        <v>0.05251477099097132</v>
       </c>
       <c r="C31">
-        <v>0.02938091976503933</v>
+        <v>0.01236510359167359</v>
       </c>
       <c r="D31">
-        <v>0.004917553064287425</v>
+        <v>-0.01977849417932494</v>
       </c>
       <c r="E31">
-        <v>0.009458371899094885</v>
+        <v>-0.00400098376343094</v>
       </c>
       <c r="F31">
-        <v>0.05235073920417761</v>
+        <v>0.007970360856447152</v>
       </c>
       <c r="G31">
-        <v>-0.0497143441201224</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>0.01544517617934626</v>
+      </c>
+      <c r="H31">
+        <v>0.007159596000332666</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01443909423008977</v>
+        <v>0.01066397671425556</v>
       </c>
       <c r="C32">
-        <v>0.009004525397524891</v>
+        <v>0.01352359061147413</v>
       </c>
       <c r="D32">
-        <v>0.003753806236751097</v>
+        <v>-0.009524919801706352</v>
       </c>
       <c r="E32">
-        <v>0.07031889316012584</v>
+        <v>0.030581061841321</v>
       </c>
       <c r="F32">
-        <v>0.08013568154138469</v>
+        <v>0.04372881911241483</v>
       </c>
       <c r="G32">
-        <v>-0.03414028611914023</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>0.02171631285964963</v>
+      </c>
+      <c r="H32">
+        <v>0.05291714520601958</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04194828982310239</v>
+        <v>0.04047801425517612</v>
       </c>
       <c r="C33">
-        <v>0.03519464207014034</v>
+        <v>0.002861328527804501</v>
       </c>
       <c r="D33">
-        <v>0.02945091237650934</v>
+        <v>-0.03696998681729215</v>
       </c>
       <c r="E33">
-        <v>0.02585403634458088</v>
+        <v>-0.02268183853859188</v>
       </c>
       <c r="F33">
-        <v>0.09387718649194506</v>
+        <v>0.01004688132439514</v>
       </c>
       <c r="G33">
-        <v>-0.0545335996628982</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>0.04203497212517402</v>
+      </c>
+      <c r="H33">
+        <v>0.04451443250394631</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02840273253783397</v>
+        <v>0.02967622891684102</v>
       </c>
       <c r="C34">
-        <v>0.02390216168310964</v>
+        <v>0.01935914237580332</v>
       </c>
       <c r="D34">
-        <v>-0.001519787001638865</v>
+        <v>-0.03697813787405509</v>
       </c>
       <c r="E34">
-        <v>0.02917684803285362</v>
+        <v>0.01016716116037425</v>
       </c>
       <c r="F34">
-        <v>0.05725937746736235</v>
+        <v>0.02030656349812707</v>
       </c>
       <c r="G34">
-        <v>-0.009778229337956438</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>0.01622400647160263</v>
+      </c>
+      <c r="H34">
+        <v>0.03655616815959295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01386817627834434</v>
+        <v>0.01986267666326178</v>
       </c>
       <c r="C36">
-        <v>-0.0005559376314781452</v>
+        <v>-0.005099164301805167</v>
       </c>
       <c r="D36">
-        <v>0.000972147464607293</v>
+        <v>-0.002548876632897173</v>
       </c>
       <c r="E36">
-        <v>0.02072772012904658</v>
+        <v>0.007499442129156108</v>
       </c>
       <c r="F36">
-        <v>0.04052505115335844</v>
+        <v>0.006718321453728795</v>
       </c>
       <c r="G36">
-        <v>-0.0329803162727661</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.01767912405307746</v>
+      </c>
+      <c r="H36">
+        <v>0.01412882703707675</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.002282162287028978</v>
+        <v>0.02883361962166622</v>
       </c>
       <c r="C38">
-        <v>-0.006336742770472692</v>
+        <v>0.01765895278071776</v>
       </c>
       <c r="D38">
-        <v>0.01796015224654304</v>
+        <v>-0.0107712303644585</v>
       </c>
       <c r="E38">
-        <v>-0.02870587079204252</v>
+        <v>-0.0001817465127733451</v>
       </c>
       <c r="F38">
-        <v>0.03764732846764081</v>
+        <v>0.01569343558727617</v>
       </c>
       <c r="G38">
-        <v>-0.008687210844005661</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.01981459561375898</v>
+      </c>
+      <c r="H38">
+        <v>0.04359267488233112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03288470090833457</v>
+        <v>0.02309889811281967</v>
       </c>
       <c r="C39">
-        <v>0.04721188894408996</v>
+        <v>0.00801923563677856</v>
       </c>
       <c r="D39">
-        <v>-0.001731118976267347</v>
+        <v>-0.08642564624465772</v>
       </c>
       <c r="E39">
-        <v>0.03200354343198152</v>
+        <v>-0.003692047457811649</v>
       </c>
       <c r="F39">
-        <v>0.07160194919443025</v>
+        <v>0.0266450341999701</v>
       </c>
       <c r="G39">
-        <v>-0.02055758866022716</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.03657530090272218</v>
+      </c>
+      <c r="H39">
+        <v>0.07607863593942676</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03132630059831797</v>
+        <v>0.0326517228048673</v>
       </c>
       <c r="C40">
-        <v>0.06572821950970796</v>
+        <v>0.002328733892803888</v>
       </c>
       <c r="D40">
-        <v>-0.02431545689387034</v>
+        <v>-0.02811065849422233</v>
       </c>
       <c r="E40">
-        <v>-0.01394663812608765</v>
+        <v>-0.02244265236303721</v>
       </c>
       <c r="F40">
-        <v>0.08841182898444953</v>
+        <v>0.03926553345706747</v>
       </c>
       <c r="G40">
-        <v>-0.04596567237071713</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.01707705629272725</v>
+      </c>
+      <c r="H40">
+        <v>0.06705095945499799</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.001555323164662432</v>
+        <v>0.01013732423260058</v>
       </c>
       <c r="C41">
-        <v>-0.00204930829991776</v>
+        <v>-0.002510407571704381</v>
       </c>
       <c r="D41">
-        <v>0.008210158519496604</v>
+        <v>0.01521765716161907</v>
       </c>
       <c r="E41">
-        <v>0.002607801436955955</v>
+        <v>-0.001446370429675059</v>
       </c>
       <c r="F41">
-        <v>0.0192243729171356</v>
+        <v>-0.002356348842425954</v>
       </c>
       <c r="G41">
-        <v>-0.04682350816798607</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.00530213301936081</v>
+      </c>
+      <c r="H41">
+        <v>-0.0062640053411228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3771391774555323</v>
+        <v>0.1908485425518769</v>
       </c>
       <c r="C42">
-        <v>-0.09152858241653429</v>
+        <v>-0.06130866551922379</v>
       </c>
       <c r="D42">
-        <v>0.8260218475864788</v>
+        <v>-0.2540525743632364</v>
       </c>
       <c r="E42">
-        <v>-0.2016064116700136</v>
+        <v>-0.2144730648512418</v>
       </c>
       <c r="F42">
-        <v>-0.2572040934911369</v>
+        <v>-0.9091932047718539</v>
       </c>
       <c r="G42">
-        <v>-0.1530117183244166</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>-0.06606560504735644</v>
+      </c>
+      <c r="H42">
+        <v>0.006768316305235304</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.0003340216029144622</v>
+        <v>0.01396790400530138</v>
       </c>
       <c r="C43">
-        <v>-0.003225330439358762</v>
+        <v>-0.002454721921392026</v>
       </c>
       <c r="D43">
-        <v>0.01149065142375386</v>
+        <v>0.01543227565874427</v>
       </c>
       <c r="E43">
-        <v>0.002421056932563771</v>
+        <v>-0.004912585423642183</v>
       </c>
       <c r="F43">
-        <v>0.03476411168932618</v>
+        <v>-0.004394793445324994</v>
       </c>
       <c r="G43">
-        <v>-0.04336943473508961</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.006198437926512397</v>
+      </c>
+      <c r="H43">
+        <v>0.007518830034325841</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01535749581226464</v>
+        <v>0.0218725703503352</v>
       </c>
       <c r="C44">
-        <v>-0.0003586492130390945</v>
+        <v>0.005533011251109708</v>
       </c>
       <c r="D44">
-        <v>0.01153486167799638</v>
+        <v>-0.03061678539414487</v>
       </c>
       <c r="E44">
-        <v>-0.006735596395270411</v>
+        <v>0.006340422960641915</v>
       </c>
       <c r="F44">
-        <v>0.115931559752915</v>
+        <v>0.008026996116949006</v>
       </c>
       <c r="G44">
-        <v>-0.07547055481682556</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.0419477520180238</v>
+      </c>
+      <c r="H44">
+        <v>0.06812661974132246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01956474374827088</v>
+        <v>0.01649945721229725</v>
       </c>
       <c r="C46">
-        <v>0.01697472527755666</v>
+        <v>-0.004467583306726121</v>
       </c>
       <c r="D46">
-        <v>0.01007398998605761</v>
+        <v>-0.01177883035864797</v>
       </c>
       <c r="E46">
-        <v>0.03419469966102429</v>
+        <v>0.0003634646860301704</v>
       </c>
       <c r="F46">
-        <v>0.08015775519017686</v>
+        <v>0.01683180913892475</v>
       </c>
       <c r="G46">
-        <v>-0.04959166101249812</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.0441683473738775</v>
+      </c>
+      <c r="H46">
+        <v>0.007930114958327895</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09477676017675619</v>
+        <v>0.07599762383514608</v>
       </c>
       <c r="C47">
-        <v>0.03519437187633965</v>
+        <v>0.02940231550997436</v>
       </c>
       <c r="D47">
-        <v>-0.01459166140277067</v>
+        <v>-0.04325027155457337</v>
       </c>
       <c r="E47">
-        <v>0.02726916529085339</v>
+        <v>0.0004272813855052309</v>
       </c>
       <c r="F47">
-        <v>0.03904739469275848</v>
+        <v>0.01551544886265398</v>
       </c>
       <c r="G47">
-        <v>-0.07517251679805047</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.01140355840068648</v>
+      </c>
+      <c r="H47">
+        <v>-0.02280249975084045</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01471326806755637</v>
+        <v>0.02226350966027818</v>
       </c>
       <c r="C48">
-        <v>0.006749604215283309</v>
+        <v>0.005976073031378064</v>
       </c>
       <c r="D48">
-        <v>0.009258036783568131</v>
+        <v>-0.00796438064146294</v>
       </c>
       <c r="E48">
-        <v>0.02034218796447089</v>
+        <v>0.0004843989505590342</v>
       </c>
       <c r="F48">
-        <v>0.04821185882509178</v>
+        <v>0.01111764683477461</v>
       </c>
       <c r="G48">
-        <v>-0.02314871914733888</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.02267345235204521</v>
+      </c>
+      <c r="H48">
+        <v>0.02006902841442262</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08515421157942696</v>
+        <v>0.07292002573598927</v>
       </c>
       <c r="C50">
-        <v>0.0341526962855993</v>
+        <v>0.02616750319811439</v>
       </c>
       <c r="D50">
-        <v>0.01155122805174335</v>
+        <v>-0.042292494786356</v>
       </c>
       <c r="E50">
-        <v>0.03656623473326269</v>
+        <v>0.01460664821894114</v>
       </c>
       <c r="F50">
-        <v>0.0617450310453493</v>
+        <v>0.01078835573984932</v>
       </c>
       <c r="G50">
-        <v>-0.02840860812975518</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.008327064340575034</v>
+      </c>
+      <c r="H50">
+        <v>-0.00167136793818508</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01503739033116757</v>
+        <v>0.02025560579493739</v>
       </c>
       <c r="C51">
-        <v>-0.006204703804477559</v>
+        <v>-0.001061663767421343</v>
       </c>
       <c r="D51">
-        <v>0.001905461758849096</v>
+        <v>-0.001305818483190186</v>
       </c>
       <c r="E51">
-        <v>-0.0195026044522416</v>
+        <v>0.005458373641508963</v>
       </c>
       <c r="F51">
-        <v>0.1021350416321044</v>
+        <v>0.004669459102038014</v>
       </c>
       <c r="G51">
-        <v>-0.04238982955042576</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.04691334641153705</v>
+      </c>
+      <c r="H51">
+        <v>0.05432040571547821</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1011472212636321</v>
+        <v>0.09498837849653956</v>
       </c>
       <c r="C53">
-        <v>0.04643350220408255</v>
+        <v>0.03773276606802954</v>
       </c>
       <c r="D53">
-        <v>-0.01129085785956838</v>
+        <v>-0.07664753936227937</v>
       </c>
       <c r="E53">
-        <v>0.05019708291899351</v>
+        <v>0.003375303311716989</v>
       </c>
       <c r="F53">
-        <v>-0.01941765597397037</v>
+        <v>0.03065721141159562</v>
       </c>
       <c r="G53">
-        <v>-0.01020094977967853</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.05010929921445179</v>
+      </c>
+      <c r="H53">
+        <v>-0.04085039905600404</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02195659672544069</v>
+        <v>0.02639484380517825</v>
       </c>
       <c r="C54">
-        <v>-0.001806400726692011</v>
+        <v>0.00956113772187629</v>
       </c>
       <c r="D54">
-        <v>-0.02235510387494056</v>
+        <v>0.01040842260774834</v>
       </c>
       <c r="E54">
-        <v>0.03245530769157314</v>
+        <v>0.008477110030170411</v>
       </c>
       <c r="F54">
-        <v>0.05348132196712781</v>
+        <v>0.0149413866151197</v>
       </c>
       <c r="G54">
-        <v>-0.05757527579198329</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.03795249997489337</v>
+      </c>
+      <c r="H54">
+        <v>-0.00455550139908932</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1012474750358656</v>
+        <v>0.07962539306258369</v>
       </c>
       <c r="C55">
-        <v>0.02628266667304143</v>
+        <v>0.03342873141211129</v>
       </c>
       <c r="D55">
-        <v>-0.01218562539649856</v>
+        <v>-0.0722686777435774</v>
       </c>
       <c r="E55">
-        <v>0.06814140303533246</v>
+        <v>0.01152896691970061</v>
       </c>
       <c r="F55">
-        <v>-0.01342008277303687</v>
+        <v>0.02330776511477086</v>
       </c>
       <c r="G55">
-        <v>-0.05906327212617294</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>-0.02375273206623721</v>
+      </c>
+      <c r="H55">
+        <v>-0.05058539164400096</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1425215966596536</v>
+        <v>0.1292791937168807</v>
       </c>
       <c r="C56">
-        <v>0.0647311450777692</v>
+        <v>0.05609556069501823</v>
       </c>
       <c r="D56">
-        <v>-0.05652699376295679</v>
+        <v>-0.09170910089543828</v>
       </c>
       <c r="E56">
-        <v>0.06875532135457539</v>
+        <v>0.002115123684960219</v>
       </c>
       <c r="F56">
-        <v>-0.06041246385539788</v>
+        <v>0.0508109237369804</v>
       </c>
       <c r="G56">
-        <v>0.030967579536148</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>-0.08817215464373354</v>
+      </c>
+      <c r="H56">
+        <v>-0.06397639385005137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04422550473207833</v>
+        <v>0.03745850743657533</v>
       </c>
       <c r="C57">
-        <v>0.01572387719320809</v>
+        <v>-0.01118097733613245</v>
       </c>
       <c r="D57">
-        <v>0.01617076808166221</v>
+        <v>-0.0325146157345974</v>
       </c>
       <c r="E57">
-        <v>-0.01535938914345886</v>
+        <v>-0.008411838948753494</v>
       </c>
       <c r="F57">
-        <v>0.06070847890329567</v>
+        <v>0.01635524972834062</v>
       </c>
       <c r="G57">
-        <v>-0.05091131452243496</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.0669703569230483</v>
+      </c>
+      <c r="H57">
+        <v>0.05095339441461227</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2010773711653917</v>
+        <v>0.1585681376018609</v>
       </c>
       <c r="C58">
-        <v>0.1118505612010309</v>
+        <v>0.05291786977895136</v>
       </c>
       <c r="D58">
-        <v>0.04443150432910455</v>
+        <v>-0.1539807796172105</v>
       </c>
       <c r="E58">
-        <v>0.084739422215605</v>
+        <v>-0.1761267305104401</v>
       </c>
       <c r="F58">
-        <v>0.3947156850995556</v>
+        <v>0.04070117016032855</v>
       </c>
       <c r="G58">
-        <v>-0.08578376732255881</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.8200242348852553</v>
+      </c>
+      <c r="H58">
+        <v>-0.3846674363233394</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05509025916503812</v>
+        <v>0.156191674608314</v>
       </c>
       <c r="C59">
-        <v>-0.0541053275056364</v>
+        <v>0.0114663260581453</v>
       </c>
       <c r="D59">
-        <v>-0.08562316381248754</v>
+        <v>0.2278589573906752</v>
       </c>
       <c r="E59">
-        <v>-0.1656218280883425</v>
+        <v>-0.01689243729833027</v>
       </c>
       <c r="F59">
-        <v>0.05139202770556534</v>
+        <v>-0.003547090343935719</v>
       </c>
       <c r="G59">
-        <v>0.023539494626611</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.02292877335903228</v>
+      </c>
+      <c r="H59">
+        <v>0.03297614108066051</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1505113928816778</v>
+        <v>0.1828884562522055</v>
       </c>
       <c r="C60">
-        <v>0.08888358705229907</v>
+        <v>0.03149890718418148</v>
       </c>
       <c r="D60">
-        <v>0.02543314616390295</v>
+        <v>-0.02556804515128169</v>
       </c>
       <c r="E60">
-        <v>-0.1013619462176072</v>
+        <v>-0.04982653953753084</v>
       </c>
       <c r="F60">
-        <v>0.1628879687780475</v>
+        <v>0.05913132356338593</v>
       </c>
       <c r="G60">
-        <v>0.3246203860334831</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.02113487921188702</v>
+      </c>
+      <c r="H60">
+        <v>0.3742831723300841</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01960000566367403</v>
+        <v>0.02664039463365748</v>
       </c>
       <c r="C61">
-        <v>0.02260458483570779</v>
+        <v>0.01104913009997758</v>
       </c>
       <c r="D61">
-        <v>0.007313318584403388</v>
+        <v>-0.05282318054567336</v>
       </c>
       <c r="E61">
-        <v>0.0181617587844129</v>
+        <v>0.00426293194846222</v>
       </c>
       <c r="F61">
-        <v>0.03337383430140575</v>
+        <v>0.02597075766121369</v>
       </c>
       <c r="G61">
-        <v>-0.01361479864657792</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.01941408451346559</v>
+      </c>
+      <c r="H61">
+        <v>0.05717571050023155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.009233635553491255</v>
+        <v>0.01351789807276102</v>
       </c>
       <c r="C63">
-        <v>0.01533389763841306</v>
+        <v>-0.0014919981888986</v>
       </c>
       <c r="D63">
-        <v>0.01595312309141768</v>
+        <v>-0.01942741897663379</v>
       </c>
       <c r="E63">
-        <v>0.0275233508827717</v>
+        <v>0.005299302210590172</v>
       </c>
       <c r="F63">
-        <v>0.02250277846270831</v>
+        <v>0.01356785801436392</v>
       </c>
       <c r="G63">
-        <v>-0.06904813696421878</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.01504504266931398</v>
+      </c>
+      <c r="H63">
+        <v>0.0105476149052196</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03560105600247037</v>
+        <v>0.04257343790175507</v>
       </c>
       <c r="C64">
-        <v>-0.003101220649080027</v>
+        <v>0.01092399672331153</v>
       </c>
       <c r="D64">
-        <v>-0.01218329292037017</v>
+        <v>-0.03522490765778515</v>
       </c>
       <c r="E64">
-        <v>0.04979903870147232</v>
+        <v>0.01136669365892996</v>
       </c>
       <c r="F64">
-        <v>0.04351383910731656</v>
+        <v>0.006774555124356403</v>
       </c>
       <c r="G64">
-        <v>-0.0539236164614646</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.001259662946139671</v>
+      </c>
+      <c r="H64">
+        <v>0.03987904269075887</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03015706563548144</v>
+        <v>0.0367719551871753</v>
       </c>
       <c r="C65">
-        <v>0.01243877975553353</v>
+        <v>0.0009248377844489356</v>
       </c>
       <c r="D65">
-        <v>0.0008410547376487487</v>
+        <v>-0.06615522154615976</v>
       </c>
       <c r="E65">
-        <v>0.02362259121895452</v>
+        <v>0.00859649333611813</v>
       </c>
       <c r="F65">
-        <v>0.0111728166023992</v>
+        <v>0.03619567101942938</v>
       </c>
       <c r="G65">
-        <v>0.01717593671678489</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>-0.001902300228572537</v>
+      </c>
+      <c r="H65">
+        <v>0.07025620228405431</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03190357757364268</v>
+        <v>0.03243458547744672</v>
       </c>
       <c r="C66">
-        <v>0.05483399662411276</v>
+        <v>0.01482587872781143</v>
       </c>
       <c r="D66">
-        <v>-0.0006543955947427205</v>
+        <v>-0.1053915229565978</v>
       </c>
       <c r="E66">
-        <v>0.03691922381816382</v>
+        <v>-0.005185142907929217</v>
       </c>
       <c r="F66">
-        <v>0.05474314879458863</v>
+        <v>0.04618092956468275</v>
       </c>
       <c r="G66">
-        <v>-0.009134797859458267</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>0.03050669950597452</v>
+      </c>
+      <c r="H66">
+        <v>0.0816149112901095</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.0123318041475135</v>
+        <v>0.04841567423344061</v>
       </c>
       <c r="C67">
-        <v>0.002513164698225729</v>
+        <v>0.02003856570781483</v>
       </c>
       <c r="D67">
-        <v>0.01337636017686736</v>
+        <v>-0.01154022317658361</v>
       </c>
       <c r="E67">
-        <v>-0.03388350533900655</v>
+        <v>-0.004176785685076497</v>
       </c>
       <c r="F67">
-        <v>0.02001745101130983</v>
+        <v>0.02407427857439693</v>
       </c>
       <c r="G67">
-        <v>0.002580112773925855</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>0.005716718992966852</v>
+      </c>
+      <c r="H67">
+        <v>0.04268665497413328</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.07297509939140789</v>
+        <v>0.1479871948661919</v>
       </c>
       <c r="C68">
-        <v>-0.07866946737875057</v>
+        <v>-0.01228398912697678</v>
       </c>
       <c r="D68">
-        <v>-0.09364660575609332</v>
+        <v>0.2394249846778363</v>
       </c>
       <c r="E68">
-        <v>-0.1641751281227782</v>
+        <v>-0.01065589851568161</v>
       </c>
       <c r="F68">
-        <v>0.04292979195317519</v>
+        <v>-0.03923142221551221</v>
       </c>
       <c r="G68">
-        <v>0.06733344207090795</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.03874722785135626</v>
+      </c>
+      <c r="H68">
+        <v>-0.03575751629529304</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.06768687560204012</v>
+        <v>0.06169697362300479</v>
       </c>
       <c r="C69">
-        <v>0.04253873956673895</v>
+        <v>0.02931482191750802</v>
       </c>
       <c r="D69">
-        <v>-0.01807291880160706</v>
+        <v>-0.04158899016155031</v>
       </c>
       <c r="E69">
-        <v>0.01327495395330636</v>
+        <v>-0.0003360907527883545</v>
       </c>
       <c r="F69">
-        <v>0.02395821500936196</v>
+        <v>0.02627965044802661</v>
       </c>
       <c r="G69">
-        <v>-0.07393819266200413</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.01885711194297414</v>
+      </c>
+      <c r="H69">
+        <v>0.003432223647437912</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07614483070277724</v>
+        <v>0.1420810105406742</v>
       </c>
       <c r="C71">
-        <v>-0.08040789631221289</v>
+        <v>-0.0004381729327083015</v>
       </c>
       <c r="D71">
-        <v>-0.07162662021758202</v>
+        <v>0.2071234239636905</v>
       </c>
       <c r="E71">
-        <v>-0.2225425980649497</v>
+        <v>-0.01734968053116366</v>
       </c>
       <c r="F71">
-        <v>0.03762133514693651</v>
+        <v>-0.0438222745993655</v>
       </c>
       <c r="G71">
-        <v>-0.0004744329242103405</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>0.03630528467844139</v>
+      </c>
+      <c r="H71">
+        <v>-0.01833452580574688</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1050928206088727</v>
+        <v>0.07879270067340721</v>
       </c>
       <c r="C72">
-        <v>0.07011221215289469</v>
+        <v>0.03915396166536667</v>
       </c>
       <c r="D72">
-        <v>-0.0608444199419836</v>
+        <v>-0.07312646314480904</v>
       </c>
       <c r="E72">
-        <v>0.01703206740802315</v>
+        <v>-0.01628676724470478</v>
       </c>
       <c r="F72">
-        <v>0.0914026612209054</v>
+        <v>0.07668340214955555</v>
       </c>
       <c r="G72">
-        <v>0.07554425835225637</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.01506122367156089</v>
+      </c>
+      <c r="H72">
+        <v>0.1313726959102812</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2248162827011969</v>
+        <v>0.2509828077796253</v>
       </c>
       <c r="C73">
-        <v>0.1244257375137369</v>
+        <v>0.04558962193434778</v>
       </c>
       <c r="D73">
-        <v>0.02960265277815155</v>
+        <v>-0.08535105384458001</v>
       </c>
       <c r="E73">
-        <v>-0.1912950416720881</v>
+        <v>-0.08897119592806595</v>
       </c>
       <c r="F73">
-        <v>0.1865115466345678</v>
+        <v>0.07082602704599601</v>
       </c>
       <c r="G73">
-        <v>0.4449035462845936</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.02809296073065054</v>
+      </c>
+      <c r="H73">
+        <v>0.4843663227875897</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1344400693633379</v>
+        <v>0.1236985839313458</v>
       </c>
       <c r="C74">
-        <v>0.03812069238392103</v>
+        <v>0.05465698442728918</v>
       </c>
       <c r="D74">
-        <v>-0.01902388844936338</v>
+        <v>-0.1002776349951738</v>
       </c>
       <c r="E74">
-        <v>0.03932797471433094</v>
+        <v>0.004239275834000509</v>
       </c>
       <c r="F74">
-        <v>-0.06758621352400547</v>
+        <v>0.03601289691482002</v>
       </c>
       <c r="G74">
-        <v>0.01565616372530807</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>-0.07518757846461395</v>
+      </c>
+      <c r="H74">
+        <v>-0.03606539987476323</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2251865292955726</v>
+        <v>0.2341297987205979</v>
       </c>
       <c r="C75">
-        <v>0.1037446402644283</v>
+        <v>0.1021800901814767</v>
       </c>
       <c r="D75">
-        <v>-0.09930901408360411</v>
+        <v>-0.1517274437247872</v>
       </c>
       <c r="E75">
-        <v>0.1011872610626308</v>
+        <v>-0.01090738413035715</v>
       </c>
       <c r="F75">
-        <v>-0.07646054742972</v>
+        <v>0.09688838667574161</v>
       </c>
       <c r="G75">
-        <v>-0.001537588759108684</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.1514670366013903</v>
+      </c>
+      <c r="H75">
+        <v>-0.1444964069099105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2720692681765033</v>
+        <v>0.2058061737191116</v>
       </c>
       <c r="C76">
-        <v>0.1014853567298943</v>
+        <v>0.0953017182443994</v>
       </c>
       <c r="D76">
-        <v>-0.1509237979206488</v>
+        <v>-0.1439573277139363</v>
       </c>
       <c r="E76">
-        <v>0.1354959975197568</v>
+        <v>0.03511168879131681</v>
       </c>
       <c r="F76">
-        <v>-0.159538628492737</v>
+        <v>0.09218463180457166</v>
       </c>
       <c r="G76">
-        <v>0.01041469436484396</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>-0.1501184675381527</v>
+      </c>
+      <c r="H76">
+        <v>-0.1488692197075815</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1208866197440212</v>
+        <v>0.07412654892491292</v>
       </c>
       <c r="C77">
-        <v>0.0461752989353658</v>
+        <v>0.01344776142329043</v>
       </c>
       <c r="D77">
-        <v>0.06773790962239856</v>
+        <v>-0.06888360094271859</v>
       </c>
       <c r="E77">
-        <v>0.04565579786963224</v>
+        <v>-0.01031659630683694</v>
       </c>
       <c r="F77">
-        <v>0.1988262121878211</v>
+        <v>-0.001991715661132556</v>
       </c>
       <c r="G77">
-        <v>-0.1975534485489153</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>0.08665448575727062</v>
+      </c>
+      <c r="H77">
+        <v>0.01215448488458742</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.07184079379888998</v>
+        <v>0.04622559115623903</v>
       </c>
       <c r="C78">
-        <v>0.04356374608993617</v>
+        <v>0.01474900847190988</v>
       </c>
       <c r="D78">
-        <v>0.01969240534168479</v>
+        <v>-0.05944843201839305</v>
       </c>
       <c r="E78">
-        <v>0.07277070457683607</v>
+        <v>0.003387143290619291</v>
       </c>
       <c r="F78">
-        <v>0.1152006933048111</v>
+        <v>0.03197535448003874</v>
       </c>
       <c r="G78">
-        <v>-0.02228115627680365</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>0.06009263369435199</v>
+      </c>
+      <c r="H78">
+        <v>0.07579203617085888</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2543115716591637</v>
+        <v>0.1440515138703188</v>
       </c>
       <c r="C80">
-        <v>-0.8501090639249893</v>
+        <v>0.03657131927454863</v>
       </c>
       <c r="D80">
-        <v>-0.05505091374681428</v>
+        <v>-0.05993462036986871</v>
       </c>
       <c r="E80">
-        <v>0.3921826787517937</v>
+        <v>0.9426930285016861</v>
       </c>
       <c r="F80">
-        <v>0.08226862789069939</v>
+        <v>-0.1973885815721055</v>
       </c>
       <c r="G80">
-        <v>0.1265486655813685</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>0.1498349828694146</v>
+      </c>
+      <c r="H80">
+        <v>0.01761461732407554</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1713665320924362</v>
+        <v>0.1563749678745917</v>
       </c>
       <c r="C81">
-        <v>0.07016037500228546</v>
+        <v>0.06675136883317503</v>
       </c>
       <c r="D81">
-        <v>-0.09897064297759019</v>
+        <v>-0.09401176207556604</v>
       </c>
       <c r="E81">
-        <v>0.07758299778042271</v>
+        <v>0.00987413961123778</v>
       </c>
       <c r="F81">
-        <v>-0.10959986881889</v>
+        <v>0.06261229044630667</v>
       </c>
       <c r="G81">
-        <v>0.02652640079234602</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>-0.1002892046456183</v>
+      </c>
+      <c r="H81">
+        <v>-0.09346422962206681</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.0357174762628561</v>
+        <v>0.03485885417706755</v>
       </c>
       <c r="C83">
-        <v>0.03143508247828948</v>
+        <v>0.007041650058228025</v>
       </c>
       <c r="D83">
-        <v>0.02133540064713848</v>
+        <v>-0.02314297942064003</v>
       </c>
       <c r="E83">
-        <v>0.004513819853135814</v>
+        <v>-0.007960701090985593</v>
       </c>
       <c r="F83">
-        <v>0.06234519279892497</v>
+        <v>0.0158859106553992</v>
       </c>
       <c r="G83">
-        <v>-0.03316015800496346</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>0.0458534000180644</v>
+      </c>
+      <c r="H83">
+        <v>0.03834723671356176</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.250102773151413</v>
+        <v>0.2228831622745671</v>
       </c>
       <c r="C85">
-        <v>0.1041008150675369</v>
+        <v>0.08678105752650415</v>
       </c>
       <c r="D85">
-        <v>-0.1068023215584657</v>
+        <v>-0.1565885472946161</v>
       </c>
       <c r="E85">
-        <v>0.1027023509261244</v>
+        <v>-0.004501023117087432</v>
       </c>
       <c r="F85">
-        <v>-0.09568428830173083</v>
+        <v>0.08065218777663537</v>
       </c>
       <c r="G85">
-        <v>-0.02627835260695699</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>-0.1638351061435113</v>
+      </c>
+      <c r="H85">
+        <v>-0.1083079497416577</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.006319735543413024</v>
+        <v>0.02816740309312058</v>
       </c>
       <c r="C86">
-        <v>-6.876225171431969e-05</v>
+        <v>0.003639057038971142</v>
       </c>
       <c r="D86">
-        <v>0.01979557916659421</v>
+        <v>-0.0290541055001808</v>
       </c>
       <c r="E86">
-        <v>0.04097487673311529</v>
+        <v>-0.004077318065963999</v>
       </c>
       <c r="F86">
-        <v>0.08202742684993422</v>
+        <v>0.003874702198043547</v>
       </c>
       <c r="G86">
-        <v>-0.01919774107234786</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>0.0772970308610785</v>
+      </c>
+      <c r="H86">
+        <v>0.0987730008441169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.04004931888217049</v>
+        <v>0.02952358346585483</v>
       </c>
       <c r="C87">
-        <v>-0.005086762436664964</v>
+        <v>0.00457440473961267</v>
       </c>
       <c r="D87">
-        <v>0.01258999290933969</v>
+        <v>-0.04362134130177567</v>
       </c>
       <c r="E87">
-        <v>0.009627289793040091</v>
+        <v>0.008019123706694033</v>
       </c>
       <c r="F87">
-        <v>0.1178444366085156</v>
+        <v>0.01680543800881588</v>
       </c>
       <c r="G87">
-        <v>-0.0385561891745906</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.08079978365247155</v>
+      </c>
+      <c r="H87">
+        <v>0.08122774313947732</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01107215252600639</v>
+        <v>0.03868049606275766</v>
       </c>
       <c r="C88">
-        <v>-0.01284423092020733</v>
+        <v>-0.0105939352567928</v>
       </c>
       <c r="D88">
-        <v>-0.01101900372170107</v>
+        <v>-0.01675862417101829</v>
       </c>
       <c r="E88">
-        <v>0.012635520918206</v>
+        <v>0.01072618340185462</v>
       </c>
       <c r="F88">
-        <v>0.0044031993899418</v>
+        <v>0.01454663783919181</v>
       </c>
       <c r="G88">
-        <v>-0.04833164909154943</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.007832420011079264</v>
+      </c>
+      <c r="H88">
+        <v>0.02029145989074911</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1071909215414782</v>
+        <v>0.2440736730329753</v>
       </c>
       <c r="C89">
-        <v>-0.1142358184310169</v>
+        <v>-0.003206885702405066</v>
       </c>
       <c r="D89">
-        <v>-0.1226852898390094</v>
+        <v>0.3609864857222829</v>
       </c>
       <c r="E89">
-        <v>-0.2706389943732079</v>
+        <v>-0.02513698456217277</v>
       </c>
       <c r="F89">
-        <v>0.06553337147064081</v>
+        <v>-0.02737241873607682</v>
       </c>
       <c r="G89">
-        <v>0.00837072352206176</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.001740266592527765</v>
+      </c>
+      <c r="H89">
+        <v>0.01522935798829066</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.09355812675302601</v>
+        <v>0.1948956164517114</v>
       </c>
       <c r="C90">
-        <v>-0.1528444894493281</v>
+        <v>-0.004686620128797004</v>
       </c>
       <c r="D90">
-        <v>-0.1375865219571818</v>
+        <v>0.3211863701528314</v>
       </c>
       <c r="E90">
-        <v>-0.2897389647729356</v>
+        <v>-0.01727677270910871</v>
       </c>
       <c r="F90">
-        <v>0.0200001956061886</v>
+        <v>-0.05689115443417943</v>
       </c>
       <c r="G90">
-        <v>-0.01371486501317097</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.006456529077729293</v>
+      </c>
+      <c r="H90">
+        <v>-0.04558686815870407</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.3029221348213743</v>
+        <v>0.236273106101562</v>
       </c>
       <c r="C91">
-        <v>0.1323138123365531</v>
+        <v>0.09981375370423</v>
       </c>
       <c r="D91">
-        <v>-0.1056774650000087</v>
+        <v>-0.135505561599187</v>
       </c>
       <c r="E91">
-        <v>0.1097158654127146</v>
+        <v>-0.01075720760553257</v>
       </c>
       <c r="F91">
-        <v>-0.2167538273430253</v>
+        <v>0.07884289096827306</v>
       </c>
       <c r="G91">
-        <v>0.0246973422705709</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>-0.1770655994132851</v>
+      </c>
+      <c r="H91">
+        <v>-0.1893255879841307</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1745970633022655</v>
+        <v>0.2456311894596611</v>
       </c>
       <c r="C92">
-        <v>-0.09184000650864287</v>
+        <v>0.06208258172939912</v>
       </c>
       <c r="D92">
-        <v>-0.2906136278344452</v>
+        <v>0.2570977403666261</v>
       </c>
       <c r="E92">
-        <v>-0.3179635129455159</v>
+        <v>-0.004569547108249295</v>
       </c>
       <c r="F92">
-        <v>-0.144762271548197</v>
+        <v>0.004051274965310169</v>
       </c>
       <c r="G92">
-        <v>-0.5534793722649488</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>0.001926656088652386</v>
+      </c>
+      <c r="H92">
+        <v>-0.1368579120460453</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.09437787191327893</v>
+        <v>0.2186149550067224</v>
       </c>
       <c r="C93">
-        <v>-0.143541510247288</v>
+        <v>0.004616150632980404</v>
       </c>
       <c r="D93">
-        <v>-0.162401419961332</v>
+        <v>0.3385884232142071</v>
       </c>
       <c r="E93">
-        <v>-0.4119489681354959</v>
+        <v>-0.0390258806452206</v>
       </c>
       <c r="F93">
-        <v>-0.03143176013539863</v>
+        <v>-0.05923150717069008</v>
       </c>
       <c r="G93">
-        <v>0.05666669859707108</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.002211135681785251</v>
+      </c>
+      <c r="H93">
+        <v>0.01097806738173266</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2964118057796782</v>
+        <v>0.2620521267307247</v>
       </c>
       <c r="C94">
-        <v>0.1630577545889446</v>
+        <v>0.08903177808695463</v>
       </c>
       <c r="D94">
-        <v>-0.2015481679972398</v>
+        <v>-0.1267198875561221</v>
       </c>
       <c r="E94">
-        <v>0.1164810891597975</v>
+        <v>-0.02461684019747305</v>
       </c>
       <c r="F94">
-        <v>-0.1788517991242235</v>
+        <v>0.1264574774851535</v>
       </c>
       <c r="G94">
-        <v>0.02772191159158723</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>-0.1746531157944006</v>
+      </c>
+      <c r="H94">
+        <v>-0.2236537477063127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.05524111110864881</v>
+        <v>0.05992030221366076</v>
       </c>
       <c r="C95">
-        <v>0.05260569516291115</v>
+        <v>0.03504865931062142</v>
       </c>
       <c r="D95">
-        <v>0.03594973272079184</v>
+        <v>-0.08675702877317104</v>
       </c>
       <c r="E95">
-        <v>0.07502322814429065</v>
+        <v>-0.07933177158989645</v>
       </c>
       <c r="F95">
-        <v>0.07624992676926148</v>
+        <v>0.009375061004234792</v>
       </c>
       <c r="G95">
-        <v>-0.1850790265424564</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>0.05149948194687235</v>
+      </c>
+      <c r="H95">
+        <v>0.04533668550439937</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1694605045810707</v>
+        <v>0.1863131001789835</v>
       </c>
       <c r="C98">
-        <v>0.05403657941350062</v>
+        <v>0.06272686048868607</v>
       </c>
       <c r="D98">
-        <v>0.04410204575738164</v>
+        <v>-0.03900279116432046</v>
       </c>
       <c r="E98">
-        <v>-0.13121615235794</v>
+        <v>-0.05348424796425363</v>
       </c>
       <c r="F98">
-        <v>0.09892870272157528</v>
+        <v>0.02577018647085478</v>
       </c>
       <c r="G98">
-        <v>0.3505095060383491</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.06111333250687143</v>
+      </c>
+      <c r="H98">
+        <v>0.3479357322499463</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.00560757367911671</v>
+        <v>0.01612887728480557</v>
       </c>
       <c r="C101">
-        <v>0.01093292117390954</v>
+        <v>2.443950701132847e-05</v>
       </c>
       <c r="D101">
-        <v>-0.004163157197943745</v>
+        <v>-0.01233623548778026</v>
       </c>
       <c r="E101">
-        <v>0.06960485218859136</v>
+        <v>0.007147284944290498</v>
       </c>
       <c r="F101">
-        <v>0.1751683035920282</v>
+        <v>0.0295707429892284</v>
       </c>
       <c r="G101">
-        <v>-0.1200151663104609</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>0.1060410249542853</v>
+      </c>
+      <c r="H101">
+        <v>-0.02397907979579925</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1140191631381336</v>
+        <v>0.1073654750276148</v>
       </c>
       <c r="C102">
-        <v>0.05242176796378757</v>
+        <v>0.03453760005920966</v>
       </c>
       <c r="D102">
-        <v>-0.03858526685310947</v>
+        <v>-0.0770388021260236</v>
       </c>
       <c r="E102">
-        <v>0.07589445293460269</v>
+        <v>0.0001749259006247129</v>
       </c>
       <c r="F102">
-        <v>-0.08171613072515879</v>
+        <v>0.04283545356721433</v>
       </c>
       <c r="G102">
-        <v>-0.005462330314526728</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.09081077383470808</v>
+      </c>
+      <c r="H102">
+        <v>-0.07468187963770848</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.03350969500019482</v>
+        <v>0.0167573007874415</v>
       </c>
       <c r="C103">
-        <v>-0.0008221878467752497</v>
+        <v>0.006583221006388177</v>
       </c>
       <c r="D103">
-        <v>-0.0174207636447277</v>
+        <v>-0.01505442704666263</v>
       </c>
       <c r="E103">
-        <v>0.04279048742067607</v>
+        <v>0.00967590877666777</v>
       </c>
       <c r="F103">
-        <v>0.003336471014044396</v>
+        <v>0.009109827665575904</v>
       </c>
       <c r="G103">
-        <v>-0.005892303633947706</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.00133914741161675</v>
+      </c>
+      <c r="H103">
+        <v>-0.0149598550774732</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.2193622641685205</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9549190319383603</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.1006562710636564</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>0.02789377767126496</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.1298102283622972</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>-0.03339971259174972</v>
+      </c>
+      <c r="H104">
+        <v>-0.05293960947856339</v>
       </c>
     </row>
   </sheetData>
